--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347391.5548513645</v>
+        <v>385279.8851198876</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484449</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8090432.185558028</v>
+        <v>8115684.712631873</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>310.9248217542666</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,13 +668,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>261.1236221796536</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>117.1661269884043</v>
+        <v>102.8668130360072</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73.53975505976769</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>114.6347443516971</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.008513159455165</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>123.2067863081949</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>214.5368897552616</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>58.20775816060029</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>82.15263531037797</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,7 +1348,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>78.19547133389683</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.0254420454375</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1424,10 +1424,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>347.6097274870439</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.670777199071</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>173.795002908892</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225813</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>166.1625368329193</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>90.97964783089054</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170481</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>165.7499153537888</v>
+        <v>422.7926164890737</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,10 +2488,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>28.46824604904432</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225797</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,13 +2950,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>50.38971918733594</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>47.614048497498</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -3190,22 +3190,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>120.1472970361167</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3266,7 +3266,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.76104808841</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3436,10 +3436,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.139541480022503</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.05677735225754</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,7 +3503,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>194.7408597982055</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3740,25 +3740,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314812</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3797,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633447</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>249.4112747763485</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>31.24391673888162</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>85.5532963163073</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>958.9147199317615</v>
+        <v>861.8106590603875</v>
       </c>
       <c r="C2" t="n">
-        <v>924.8126511555888</v>
+        <v>423.6681862438109</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>391.7988054586594</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>362.0644646573587</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069704</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797685</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.21016275628</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382375</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1976.074697699392</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.313463174489</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1711.498412625927</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1292.355949205238</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>884.0698255048912</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397426</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064433</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.043550975749</v>
+        <v>988.2632708524427</v>
       </c>
       <c r="C4" t="n">
-        <v>509.4818394589739</v>
+        <v>815.7015593356676</v>
       </c>
       <c r="D4" t="n">
-        <v>343.6038466604966</v>
+        <v>649.8235665371903</v>
       </c>
       <c r="E4" t="n">
-        <v>173.8458429112338</v>
+        <v>480.0655627879275</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>303.3585087496837</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.0427573423623</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>618.2526391103233</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1077.736506291236</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448881</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674662</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645004</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509337</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512705</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.82559109116</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>2028.82559109116</v>
       </c>
       <c r="V4" t="n">
-        <v>873.8621696947362</v>
+        <v>1924.919719337618</v>
       </c>
       <c r="W4" t="n">
-        <v>873.8621696947362</v>
+        <v>1652.893314923909</v>
       </c>
       <c r="X4" t="n">
-        <v>873.8621696947362</v>
+        <v>1407.501560257322</v>
       </c>
       <c r="Y4" t="n">
-        <v>873.8621696947362</v>
+        <v>1180.08188957143</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1343.515716940192</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>800.1331414775053</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1437.146076848872</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.044017468586</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y5" t="n">
-        <v>1417.798297808644</v>
+        <v>1292.404161523737</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.5057921365585</v>
+        <v>968.8969033375045</v>
       </c>
       <c r="C7" t="n">
-        <v>262.5057921365585</v>
+        <v>796.3351918207294</v>
       </c>
       <c r="D7" t="n">
-        <v>262.5057921365585</v>
+        <v>630.4571990222521</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5057921365585</v>
+        <v>460.6991952729894</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>283.9921412347455</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1572.73213077921</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1294.299130032316</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1007.343621902746</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>735.3172174890378</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>489.9254628224502</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>262.5057921365585</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1657.972907422382</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C8" t="n">
-        <v>1623.870838646209</v>
+        <v>759.5762967515918</v>
       </c>
       <c r="D8" t="n">
-        <v>1187.961053820653</v>
+        <v>727.7069159664404</v>
       </c>
       <c r="E8" t="n">
-        <v>754.1863089789487</v>
+        <v>293.9321711247356</v>
       </c>
       <c r="F8" t="n">
-        <v>326.3188793881564</v>
+        <v>270.1051455743474</v>
       </c>
       <c r="G8" t="n">
-        <v>326.3188793881564</v>
+        <v>270.1051455743474</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137267</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114305</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743886</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743886</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743886</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743886</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743886</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873483</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172577</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925634</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109471</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1754.944899109471</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1754.944899109471</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1754.944899109471</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1754.129848560908</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.027789180623</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y8" t="n">
-        <v>1680.232073866885</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230021</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897028</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842769</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>430.9253339676351</v>
+        <v>1049.85056207581</v>
       </c>
       <c r="C10" t="n">
-        <v>430.9253339676351</v>
+        <v>877.2888505590353</v>
       </c>
       <c r="D10" t="n">
-        <v>430.9253339676351</v>
+        <v>711.410857760558</v>
       </c>
       <c r="E10" t="n">
-        <v>430.9253339676351</v>
+        <v>541.6528540112952</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676351</v>
+        <v>364.9457999730514</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934628</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851268</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851268</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264737</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255682</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683213</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908994</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925634</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925634</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925634</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925634</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1592.717326504089</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1314.284325757194</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1027.328817627625</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="W10" t="n">
-        <v>755.3024132139165</v>
+        <v>1714.480606147277</v>
       </c>
       <c r="X10" t="n">
-        <v>509.9106585473289</v>
+        <v>1469.088851480689</v>
       </c>
       <c r="Y10" t="n">
-        <v>430.9253339676351</v>
+        <v>1241.669180794798</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
         <v>1215.548181578287</v>
@@ -5033,10 +5033,10 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,22 +5045,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5127,13 +5127,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987273</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819522</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834749</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342122</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959684</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177145</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
         <v>1215.548181578287</v>
@@ -5276,40 +5276,40 @@
         <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693462</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.798049006192</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006192</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V14" t="n">
         <v>4181.958796257035</v>
@@ -5321,7 +5321,7 @@
         <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D16" t="n">
         <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F16" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H16" t="n">
         <v>96.73597668111518</v>
@@ -5479,7 +5479,7 @@
         <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>199.031688046465</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K17" t="n">
-        <v>199.031688046465</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L17" t="n">
-        <v>199.031688046465</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M17" t="n">
-        <v>1356.079523257016</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987275</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819524</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834751</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342124</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959686</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177146</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2511.87917085155</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5759,7 +5759,7 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
         <v>2481.810506693462</v>
@@ -5783,19 +5783,19 @@
         <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3765.607328457494</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3346.464865036804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2938.178741336458</v>
       </c>
     </row>
     <row r="21">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
         <v>439.0343056935313</v>
@@ -5917,7 +5917,7 @@
         <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883922</v>
+        <v>970.9960463903956</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716172</v>
+        <v>798.4343348736205</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731399</v>
+        <v>632.5563420751432</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238771</v>
+        <v>462.7983383258805</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856333</v>
+        <v>286.0912842876368</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134644</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771591</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.807784200423</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436393</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>306.120802776629</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883919</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716168</v>
+        <v>798.4343348736205</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731395</v>
+        <v>632.5563420751432</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258805</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876368</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134644</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6476,10 +6476,10 @@
         <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928213</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
         <v>407.7542895545774</v>
@@ -6625,7 +6625,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6649,22 +6649,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V31" t="n">
         <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>790.3368563937647</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769897</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>617.7751448769897</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>617.7751448769897</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6859,13 +6859,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N34" t="n">
         <v>1783.551532113124</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127519</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
         <v>2090.757574835212</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6947,16 +6947,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477105</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>451.8971520785109</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>282.1391483292482</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910044</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>105.4320942910044</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,64 +7160,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>839.0206718702449</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309359</v>
+        <v>666.4589603534698</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324586</v>
+        <v>500.5809675549925</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F40" t="n">
-        <v>267.8521152449521</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1258.258961275124</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1030.839290589232</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7655,43 +7655,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.754677688392</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>811.754677688392</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>645.8766848899147</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>476.118681140652</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>299.4116271024081</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>133.8203521282358</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7840,16 +7840,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803904</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854839</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.46007352745</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314085</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314084</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314085</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662733</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314086</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428251</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>103.3290013791412</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>309.6062697457101</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>40.81776196807232</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>-3.292261534887825e-13</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>11.38105307846786</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.14457787893036</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.1957776566197</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>267.5985112554916</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>268.0111327346221</v>
+        <v>10.96843159933724</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>120.4463752142714</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>54.79268646174467</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.146865729424294</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>48.19697732171615</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,16 +25834,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>34.67467827192533</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.2592358276476</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>694712.7362444153</v>
+        <v>702488.1483657651</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>694712.7362444153</v>
+        <v>704689.9378905492</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>696162.9800699091</v>
+        <v>704689.9378905492</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>683483.6805425136</v>
+        <v>683483.6805425137</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>683483.6805425137</v>
+        <v>683483.6805425136</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712327.4728905304</v>
+        <v>712327.4728905305</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712327.4728905305</v>
+        <v>712327.4728905304</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>268073.6599452042</v>
+      </c>
+      <c r="C2" t="n">
         <v>268073.6599452041</v>
-      </c>
-      <c r="C2" t="n">
-        <v>268073.6599452042</v>
       </c>
       <c r="D2" t="n">
         <v>268073.6599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>252761.9489858381</v>
+        <v>252761.9489858382</v>
       </c>
       <c r="F2" t="n">
-        <v>252761.9489858381</v>
+        <v>252761.9489858382</v>
       </c>
       <c r="G2" t="n">
         <v>252761.9489858382</v>
       </c>
       <c r="H2" t="n">
-        <v>252761.9489858381</v>
+        <v>252761.9489858382</v>
       </c>
       <c r="I2" t="n">
         <v>263428.7920686761</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390672</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720024</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520277</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784519</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.61108850967</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104679</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.3824742624</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966618</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.490199087</v>
       </c>
       <c r="F4" t="n">
         <v>52352.490199087</v>
       </c>
       <c r="G4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.490199087</v>
       </c>
       <c r="H4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.490199087</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962275</v>
@@ -26448,16 +26448,16 @@
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962279</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962273</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962264</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846964</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
         <v>73519.34227764752</v>
@@ -26491,7 +26491,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="O5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="P5" t="n">
         <v>77718.23860579252</v>
-      </c>
-      <c r="O5" t="n">
-        <v>77718.2386057925</v>
-      </c>
-      <c r="P5" t="n">
-        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127239.1085028926</v>
+        <v>-166680.1152911029</v>
       </c>
       <c r="C6" t="n">
-        <v>14952.19215681739</v>
+        <v>28510.39676375051</v>
       </c>
       <c r="D6" t="n">
-        <v>8461.696928070422</v>
+        <v>45850.94113765734</v>
       </c>
       <c r="E6" t="n">
-        <v>-96909.17724292408</v>
+        <v>-34921.51725580758</v>
       </c>
       <c r="F6" t="n">
-        <v>126890.1165091036</v>
+        <v>126813.5579543068</v>
       </c>
       <c r="G6" t="n">
-        <v>126890.1165091037</v>
+        <v>126813.5579543068</v>
       </c>
       <c r="H6" t="n">
-        <v>126890.1165091036</v>
+        <v>126813.5579543068</v>
       </c>
       <c r="I6" t="n">
-        <v>112784.0127204213</v>
+        <v>112760.7883810387</v>
       </c>
       <c r="J6" t="n">
-        <v>20134.26300827069</v>
+        <v>-29482.32547173497</v>
       </c>
       <c r="K6" t="n">
-        <v>131148.7283532608</v>
+        <v>117311.495446033</v>
       </c>
       <c r="L6" t="n">
-        <v>122201.1172647512</v>
+        <v>131125.5040138782</v>
       </c>
       <c r="M6" t="n">
-        <v>-55642.2582572071</v>
+        <v>-3864.440599125262</v>
       </c>
       <c r="N6" t="n">
-        <v>131148.7283532609</v>
+        <v>131125.5040138783</v>
       </c>
       <c r="O6" t="n">
-        <v>131148.7283532609</v>
+        <v>131125.5040138784</v>
       </c>
       <c r="P6" t="n">
-        <v>131148.7283532609</v>
+        <v>131125.5040138782</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314085</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26823,10 +26823,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130411</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825314</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130411</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825311</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.6741497305228</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130411</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825314</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111.111753025792</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27388,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>97.86715838585815</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>166.9198260598695</v>
+        <v>181.2191400122666</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.496819720291</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>289.568518111646</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>120.2138656491344</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.7019632559543</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>345.9955043027428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>81.78272691405263</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>146.950002645136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-3.201312064710532e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-8.363169671475202e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-1.58194581316998e-12</v>
       </c>
     </row>
     <row r="42">
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803904</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773342</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854839</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.46007352745</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314085</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314084</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314085</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662733</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314086</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428251</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807232</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>103.3290013791412</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>309.6062697457101</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>40.81776196807232</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36844,7 +36844,7 @@
         <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645591</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37619,7 +37619,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37704,7 +37704,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38190,7 +38190,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165075</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
